--- a/PCA_Clustering/DatiFinali.xlsx
+++ b/PCA_Clustering/DatiFinali.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina-my.sharepoint.com/personal/c_dotani_studenti_unina_it/Documents/Università/Magistrale/Impianti di Elaborazione/Esercizi/PCA_Clustering/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_33494EFF8B05911E8C6B23E7FC012D1631866593" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE7B7287-0D8E-5D42-B00D-73E11671A6DD}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DatiFinali" sheetId="1" r:id="rId2"/>
+    <sheet name="DatiFinali" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Disco fisico/% Tempo disco</t>
   </si>
@@ -81,15 +88,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,40 +123,358 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="21" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -206,1436 +539,1437 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>9.715336188531932</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>91.501938755462277</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.0059747465388043999</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
+        <v>5.9747465388043999E-3</v>
+      </c>
+      <c r="D2" s="2">
         <v>430.26542795374729</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1.9919695738599408</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>61.174225262639617</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>58567.889410629992</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>3667.2159854761521</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>14887.980595029199</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>7135</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>2087.5841134052184</v>
       </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
         <v>84.50512219999726</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>0.97245970456670805</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>8.3950068246542386</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>15663.852744047648</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>3.9508145838065967</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>96.023761091784607</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.14360661860666341</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>325.52903196326758</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>28.869547177170521</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>64.977314035635743</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>247678.81374433349</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>43616.908276570655</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>11398.49362684836</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>6471</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>2068.6523804882881</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>4.9775081339949176</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
         <v>72.973186595627212</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>2.9164109136251883</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>12.021375147354563</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>41028.604046893306</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>4.1381347474116117</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>95.896837478451104</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.1188491123365559</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>313.51751428798104</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>27.218562333683245</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>66.196158753288017</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>155719.41130080432</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>12582.032462470392</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>6428.6211852554834</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>6230</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>1396.2114382278255</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>68.389946871250999</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>3.9380299013035192</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>15.233907634611308</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>84810.015947053253</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
+    <row r="5" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3.2370656340224802</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>96.920037891644284</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.14420696758963919</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>244.30975008688759</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>22.657759080638765</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>69.754197231902324</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>323810.90110104886</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>4794.5788454551684</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>5582.674813477387</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>5384</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>1243.2213895550487</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>48.695935318194735</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>3.5598835270362201</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>36.306924289125263</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>36964.656260122101</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
+    <row r="6" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>72.314800110417565</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>47.277019778560742</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.013308725649144299</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>1.3308725649144299E-2</v>
+      </c>
+      <c r="D6" s="2">
         <v>1206.3907428886455</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>5.9771630531229336</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>70.452026177768602</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>242426.76007777089</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>2433.7015564632206</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>4369.3061918328649</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>5547</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>5615.5446884089961</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>179.314891593688</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>48.168514984478641</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>1.4603111370706028</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>39.445617307045652</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>36136.931625339072</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>71.582352071406945</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>60.127428420319141</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.31447980448609131</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1268.0393995828476</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>85.396545312548866</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>69.64728943296879</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>32803.196213954085</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>3878.5919301257654</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>28652.526918530199</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>5614</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>10042.037938904728</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>1617.5694455132802</v>
       </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.096978425924758194</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9.6978425924758194E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>9.9883905920798046</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="2">
         <v>100</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="2">
         <v>56234.618071398458</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
+    <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6.8285713581670642</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>93.076322202755406</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.57294508142792722</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>290.74153777043028</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>147.83468022225267</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>67.435927192549201</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>42030.385151721246</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>2841.3825538716965</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>14000.929781582145</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>6225</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>1092.9910691098548</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>9276.1334016789478</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0.1925094685068959</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>29.346915743225427</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="2">
         <v>3.85023865319268</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2">
         <v>58.321172739571089</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="2">
         <v>42595.113630170257</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
+    <row r="9" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1.6909264019860992</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>98.286413378209758</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.0524005082849303</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>5.24005082849303E-2</v>
+      </c>
+      <c r="D9" s="2">
         <v>136.00171362159165</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>22.000277203492764</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>70.010658812245978</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>139077.75237967999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>2365.0297993754721</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>6344.079935407186</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>5315</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>573.00721989097053</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
         <v>16.691941911836544</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="2">
         <v>5.9570977838485044</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>77.929475915916385</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>48177.607037848677</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
+    <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>0.38761435264556182</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>99.723836950679598</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.34730619754534758</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2.982107652296984</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>8.9463229568909508</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>69.232560291241981</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>3950.2986034094042</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>2306.1632511096673</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>2008.9465217640679</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>5385</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>13.916502377385925</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>0.1941550888822155</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>0.19414514852337461</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <v>1.941471365951428</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>49911.535776494609</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>0.071589076071768801</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7.1589076071768801E-2</v>
+      </c>
+      <c r="B11" s="2">
         <v>99.901902824079244</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.071589076071768801</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="2">
+        <v>7.1589076071768801E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>2.0242544139626593</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>69.250928417139434</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>3550.5422420905038</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>2341.0502297478151</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>849.17472665733555</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>5760</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>7.0848904488693067</v>
       </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.098846163850826202</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9.8846163850826202E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>1.2849495227681704</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>100</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>48171.182289069402</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
+    <row r="12" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>0.29968370562736002</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>99.675375590303673</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.21600784110439489</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.98812364312096479</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>10.869360074330611</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>69.255400651426839</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>4153.0836720374155</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>2277.6249973938238</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>1396.2187077299232</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>5756</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <v>0.19299401393458079</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>0.38599790928915728</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <v>2.7984477870214071</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>48560.348317536685</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
+    <row r="13" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>0.14018527139655371</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>99.832797240133885</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.14018527139655371</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>3.0163850033381325</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>69.234885151785548</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>3305.9579636585931</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>2321.6109909025822</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>407.21197545064791</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>5626</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <v>0.19639210449845701</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>0.68735225596531457</v>
       </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <v>2.6511928618327447</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="2">
         <v>100</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="2">
         <v>44087.483208790152</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
+    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>0.82297658607954172</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>99.155612045404354</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.1379414795522915</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>32.665728335371313</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>3.9594822224692496</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>65.980479741930139</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>6006.5345314858523</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>2302.4389123658689</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>1573.8941834315267</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>6365</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>149.47045389821417</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <v>0.19333584765954831</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="2">
         <v>7.494810490085734</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="2">
         <v>1.2566978581702235</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="2">
         <v>90.429751804326045</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="2">
         <v>41033.104142004457</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>1.8630319322652416</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>134.11961533472183</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.4275397622915782</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>130.63285847782947</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>25.316445441439821</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>69.255649128289804</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>8504.3003526884677</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>4987.3397519636446</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>5069.3650351939104</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>5381</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>2256.2016177411169</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>15.189867264863892</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <v>2.6701310832313654</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="2">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="2">
         <v>50381.751744100562</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
+    <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>4.3303902272665162</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>96.203642712653647</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.2950598833821782</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>309.94972278809774</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>62.386046439776862</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>69.87716606116787</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>25136.625441703109</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>3134.1561425697423</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>30451.322445548856</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>5628</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>3080.6823884785049</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>1004.1182712687894</v>
       </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>0.67691373521234754</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>0.19340250972706391</v>
       </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>12.377919059896056</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="2">
         <v>100</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="2">
         <v>67261.070354427997</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
+    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>0.97502385797034963</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>98.995591861378486</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.13905646568374799</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>66.535812901294122</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>3.9722873373906946</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <v>69.511720274927029</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>4928.615513867504</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>2350.6010319009438</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>3024.8968074230133</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>5318</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <v>313.81069965386484</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>0.38791421259760411</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <v>1.6486180252055356</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="2">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="2">
         <v>49352.690951576318</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
+    <row r="18" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>0.2091172482412279</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>99.763175640603279</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.2091172482412279</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>3.9967434534341426</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>69.252401420206851</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>3733.9575713708473</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>2335.0973626688974</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>1376.8781197080621</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>5758</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>7.9934869068682852</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
         <v>0.48787696483934612</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0.097569397920377901</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="Q18" s="2">
+        <v>9.7569397920377901E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <v>1.4636408862638572</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="2">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="2">
         <v>48286.656032664592</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3">
+    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>3.0053631216059848</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>98.423539027778119</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.97396120940257225</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>129.73360420628779</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>358.79449913301465</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
         <v>69.493263417271251</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>3883.8997759257409</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>2345.3403135417961</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>1410.8529457433797</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>5326</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <v>19.257331874370841</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0.098977325526237003</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>9.8977325526237003E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>1.4847511062350545</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="2">
         <v>100</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="2">
         <v>49854.191591397517</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3">
+    <row r="20" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>15.381464319130089</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>84.992742470608178</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>2.5911945189563736</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1212.8563983044507</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>1056.2292475300349</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
         <v>69.716680135977612</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>4322.3069492555132</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>3662.6656796478778</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>1490.969992948766</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>5603</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <v>868.4774706401904</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
         <v>0.1961043979814861</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <v>0.2941365166529602</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>3.6277908004226096</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="2">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="2">
         <v>50823.502385903383</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3">
+    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>5.8456847795042073</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>93.24716976726036</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.41309093289652438</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>230.49523847725865</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>81.820820585000902</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <v>68.163659788706269</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>146385.43054564809</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>109370.4895649018</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>3543.2406572846121</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>5948</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
         <v>1067.6619271457434</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>0.99781488518293782</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0.097449701882750095</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>9.7449701882750095E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
         <v>47.151714366291522</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <v>5.3600729061487016</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="2">
         <v>28.662247616249559</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="2">
         <v>26973.92979115036</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3">
+    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>0.21571450121328789</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>99.755214540673862</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.21571450121328789</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>3.9960574896806809</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <v>69.348465807118558</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>4265.7913702341275</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>2307.723200290593</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1361.656589608692</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>5661</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>68.931991696991744</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>68.931991696991744</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>0.99901437242017022</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0.097552545007537406</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>9.7552545007537406E-2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
         <v>1.7560656903753149</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="2">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="2">
         <v>44012.577191343022</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3">
+    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>1.1699709574347139</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>98.803196669764645</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.55880900836295488</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>52.671037766525394</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>56.646210428149942</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>1.9875863308122788</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>69.990764458195954</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>6007.4796848801125</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>2435.7870484104478</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>2281.7491077724958</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>5546</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>239.50415286287961</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>31.801381292996464</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
         <v>0.19409743450714689</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>0.29115112071864652</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
         <v>3.4937935727920526</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="2">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="2">
         <v>45436.223522368688</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>